--- a/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/qwen_tianchuang2_evaluated.xlsx
+++ b/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/qwen_tianchuang2_evaluated.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,7 +481,11 @@
           <t>请坐，同学们拿出纸和笔听写准备，</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>学生听写</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“请坐，同学们拿出纸和笔听写准备”体现出老师发起了一个开展课堂活动的指令。首先，“请坐”是让学生做好准备，而“同学们拿出纸和笔听写准备”则明确指示学生准备好进行听写的活动。综合上述整段话的分析过程，这个课堂活动是老师要求学生准备听写，符合“学生听写”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生听写”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -493,7 +497,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -512,7 +516,11 @@
           <t>注意用眼卫生，慰藉老鹰霸气，慰藉，老鹰霸气慰藉。老鹰霸气，</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师的话语似乎在描述或强调某种场景或情感，其中“注意用眼卫生”是一个对全体学生的建议或提醒，但这不是一个具体的课堂活动。其余的部分“慰藉老鹰霸气，慰藉，老鹰霸气慰藉。老鹰霸气”更像是在描述或者引导学生理解某个文学作品或情感表达，但并没有明确的指令指向某种具体的课堂活动，如“讨论”、“回答”或“展示”等。因此，从这段话语中无法识别出预设的课堂活动类别。
@@ -539,7 +547,11 @@
           <t>阅读四到七自然段。二想一想，在什么情况下，小小的天窗成了孩子们唯一的慰藉。三完成任务单，第二题四时间三分钟，把书打开，计时就行，坐那计时就行，边读边完成学习单。</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师首先指示“阅读四到七自然段”，这表明学生需要阅读指定的段落，通常这是一项独立完成的任务，符合“独立练习”的特征。接着，“二想一想，在什么情况下，小小的天窗成了孩子们唯一的慰藉”要求学生思考问题，这也是一项独立进行的思考活动，同样符合“独立练习”的特征。然后，“三完成任务单，第二题”指明了具体的作业内容，要求学生完成任务单上的第二题，这仍然是一个独立完成的任务。最后，“四时间三分钟，把书打开，计时就行，坐那计时就行，边读边完成学习单”说明学生需要在限定的时间内阅读并同时完成学习单，这仍然是一个独立进行的活动，符合“独立练习”的特征。
@@ -548,7 +560,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -567,7 +579,11 @@
           <t>天窗就成了小朋友们唯一的慰藉，他找的准确不对？对对对，没错，找的很准确，那么我们就可以把它概括为下前，</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“那么我们就可以把它概括为下前”体现出老师在引导学生对某个内容进行总结或概括，但没有明确指出是全体学生还是个别学生来完成这项任务，也没有提及具体的活动形式。综合上述整段话的分析过程，无法确定是“个体发言”、“独立练习”还是其他课堂活动，也无法确定课堂活动的进行状态。所以，在老师说完这段话后，无法识别出任何预设的课堂活动类别。
@@ -594,7 +610,11 @@
           <t>天黑前上床睡觉都是我们习以为常的。为什么在作者看来却需要慰藉呢？请同学们联系自然。第四，自然段想一想，好，你继续说，</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>独立练习或学生展示</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，第一步，分析第一个子文本段——”为什么在作者看来却需要慰藉呢？请同学们联系自然。第四，自然段想一想“，这部分话体现出老师发起了一个开展课堂活动的指令。首先，“请同学们联系自然”中的“同学们”体现出该课堂活动是针对全体学生的，进一步地，“第四，自然段想一想”中的“想一想”体现出老师要求学生思考第四自然段的内容，思考活动是个体的大脑活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合第一个子文本段的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征，因而，老师发出了一个要求学生开展“独立练习”的指令。
@@ -623,7 +643,11 @@
           <t>谁来读我来读，简谢到屋里来啊，随着木板窗的关闭，孩子们也就被关在地洞似的屋里了。嗯，真孤单呐。所以说小小的天窗吵，</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“谁来读我来读”这部分体现出老师发起了一个开展课堂活动的指令，邀请一个学生来朗读，而“简谢到屋里来啊”这部分可能是对某个特定人物的呼唤，与课堂活动的指示不太相关。接下来的部分“随着木板窗的关闭，孩子们也就被关在地洞似的屋里了。嗯，真孤单呐。所以说小小的天窗吵”是老师在描述或讲解文本内容，没有直接的课堂活动指示。
@@ -651,7 +675,11 @@
           <t>透过这小小的天窗，作者又看到了怎样的快乐呢？请同学们完成第二关自学提示。</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“请同学们完成第二关自学提示”体现出老师发起了一个开展课堂活动的指令。首先，“请同学们”中的“同学们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“完成第二关自学提示”体现出老师要求全体学生按照自学提示来完成学习任务，通常情况下，自学活动是个体的学习行为，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -663,7 +691,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -682,7 +710,11 @@
           <t>阅读四五自然段二画一画，把作者看到的用横线画出来，把作者想到的用浪线画出来。三想一想，小小的天窗给孩子们带来了怎样的快乐？四时间三分钟好，同学们开始吧，</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“阅读四五自然段”体现出老师发起了一个开展课堂活动的指令，要求学生阅读特定段落。“二画一画，把作者看到的用横线画出来，把作者想到的用浪线画出来”进一步说明了阅读活动的具体要求，即学生需要在阅读过程中进行标注，这一行为是个体独立完成的。“三想一想，小小的天窗给孩子们带来了怎样的快乐？”要求学生进行思考，思考活动是个体的大脑活动，无法集体整齐划一地开展，只能由每一个学生独自完成。最后，“四时间三分钟好，同学们开始吧”给出了活动的时间限制，并邀请全体学生开始活动。综合上述整段话的分析过程，这个课堂活动包含了“独立练习”（阅读、标注和思考）的特征，且活动的进行状态为“开始”。
@@ -694,7 +726,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -713,7 +745,11 @@
           <t>大部分同学都已经完成了，对吗？对对，好坐姿，</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“大部分同学都已经完成了”表明大多数学生已经完成了某个任务或活动，但没有明确指出这个活动是什么，也没有给出新的活动指示。而“对吗？”是对学生完成情况的确认，接下来的“对对”是对学生反馈的回应，最后的“好坐姿”是对学生坐姿的提醒，可能是为了保持课堂纪律，但并不是发起新的课堂活动。综合上述整段话的分析过程，这段话语中没有明确的课堂活动指令，因此无法识别出任何预设的课堂活动类别。
@@ -740,7 +776,11 @@
           <t>谁来说说，作者看到了什么，想象到了什么？我来说涵涵来说说画横线的是你会看见雨脚在那里不落不落跳。嗯，你会看见带似的闪电一瞥，</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“谁来说说”体现出老师发起了一个开展课堂活动的指令，邀请一个或多个学生用话语来分享自己的理解。进一步地，”作者看到了什么，想象到了什么“明确指出老师希望学生用话语来描述作者在文本中观察到的内容和想象到的情景。综合上述整段话的分析过程，这个课堂活动是由一个或多个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -752,7 +792,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -771,7 +811,11 @@
           <t>嗯，他画的对不对？我们继续往下来。第三关，请同学们默读自学提示自己完成挑战，时间三分钟。这里老师提示了大家是要把关键词写在写字单上，</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“请同学们默读自学提示自己完成挑战”体现出老师发起了一个开展课堂活动的指令。首先，“请同学们”中的”同学们“体现出这个课堂活动是由全体学生共同参与的。进一步地，“默读自学提示自己完成挑战”中的“自己完成”体现出老师要求学生独立完成挑战，默读和自学提示通常指的是学生需要独立思考并理解内容。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。另外，“这里老师提示了大家是要把关键词写在写字单上”表明学生需要记录关键词，这同样是一个独立完成的活动。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -779,7 +823,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +842,11 @@
           <t>现在只完成第三题，</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“现在只完成第三题”体现出老师发起了一个开展课堂活动的指令，要求学生完成第三题。由于“现在”一词，表明这个任务是立即进行的，而“只”和“完成”表明这是一个单独的任务，学生需要独立完成。综合分析，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -806,7 +854,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -825,7 +873,11 @@
           <t>那同学们，作者呀没有对当时的情境尽行想象，进行具体的描写。同学们，你能展开想象，具体说一说这暴风雨究竟扫荡了怎样的世界吗？你想象一下，医生，</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“同学们，你能展开想象，具体说一说这暴风雨究竟扫荡了怎样的世界吗？”体现出老师发起了一个开展课堂活动的指令。首先，“同学们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“展开想象，具体说一说”体现出老师要求学生利用想象力描述一个场景，由于想象活动是个体的大脑思维活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -837,7 +889,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -856,7 +908,11 @@
           <t>你想象这雨这风，这雷这电怎样扫荡了，整个扫荡了这世界，你想象他们的威力比你在露天真实感受到的要的十倍百倍。我们一起来感受一下。</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你想象这雨这风，这雷这电怎样扫荡了，整个扫荡了这世界，你想象他们的威力比你在露天真实感受到的要的十倍百倍”体现出老师发起了一个课堂活动的指令。首先，“你想象”中的“你”可以理解为“你们”，指的是全体学生，体现出这个课堂活动是由全体学生共同参与的。进一步地，“想象他们的威力”体现出老师要求学生利用想象力去体验和感受，想象活动是个体的大脑思维活动，无法集体整齐划一地开展，只能由每一个学生独自完成。接着，“我们一起来感受一下”这句话虽然含有“我们一起来”，但这里的“一起来”更多是指引导学生集体同步进行想象，而非集体统一行动的活动，所以仍然是要求学生独立进行的想象活动。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -868,7 +924,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -887,7 +943,11 @@
           <t>自学六七自然段默读自学提示，时间，七分钟，小组之间一议开始，</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“自学六七自然段默读自学提示”体现出老师发起了一个开展课堂活动的指令，要求学生自学课文的六七自然段并默读自学提示，这是一个需要学生独立完成的学习任务，符合“独立练习”的特征。接着，“时间，七分钟”给出了活动的时间限制，而“小组之间议一议”则意味着在自学之后，学生需要在小组内部进行讨论，这符合“小组学习”的特征。最后，“开始”一词表明活动即将启动。
@@ -896,7 +956,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -915,7 +975,11 @@
           <t>就可以小组交流了，</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>小组学习</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“就可以小组交流了”体现出老师发起了一个开展课堂活动的指令，其中，“小组交流”表明学生将以小组的形式互相讨论或分享想法。综合上述整段话的分析过程，这个课堂活动是学生以小组形式通过互相讨论来达到自主学习的目的，符合“小组学习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“小组学习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -923,7 +987,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -942,7 +1006,11 @@
           <t>哎，其他同学注意听听他们的发言，你来补充交流，请大家看。第六，自然段，作者被逼迫着上船休息，感到非常的无奈，他只能偷偷的伸出头，</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“哎，其他同学注意听听他们的发言”体现出老师要求其他学生关注并倾听某个或某些同学的发言，这是典型的“个体发言”活动的特征，而“你来补充交流”则是老师邀请一个学生对前面的发言进行补充，也是属于“个体发言”的活动。“请大家看”可能是指全体学生观看或注意某事，但没有足够的信息来判断这是一个具体的课堂活动。综合上述整段话的分析过程，这个课堂活动包含了“个体发言”的特征。因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -950,7 +1018,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -969,7 +1037,11 @@
           <t>所以小小的天窗就成了唯一的慰藉。嗯，大家把目光好，第七好，你们小组先坐下，他刚刚抓住的是这个自然段还有补充吗，</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“所以小小的天窗就成了唯一的慰藉”是对之前话题的总结，而“嗯，大家把目光好，第七好，你们小组先坐下”这部分，老师可能是对学生们的注意力进行调整，同时让某个小组坐下，这可能意味着他们完成了某个任务或者展示。接着，“他刚刚抓住的是这个自然段还有补充吗”这部分，老师在询问是否有学生对前面提到的自然段有额外的观点或补充。综合分析，虽然有小组活动的迹象，但这里更多是在进行“个体发言”，邀请学生分享他们的想法或补充。
@@ -977,7 +1049,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -996,7 +1068,11 @@
           <t>那让我们合作来来读一读老师来读看到的部分，你们来读想象到的部分。最后一句话我们一起来读，好不好？好好了吗？美好了，嗯，你会从那小玻璃上面的一粒星一朵云，</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>学生齐读</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“那让我们合作来读一读老师来读看到的部分，你们来读想象到的部分”体现出老师发起了一个开展课堂活动的指令，其中，“我们合作”体现出这个课堂活动是老师邀请学生集体参与的。进一步地，”老师来读看到的部分，你们来读想象到的部分“体现出老师对课堂任务进行了分工：老师读看到的部分，学生读想象的部分，通常情况下，这种老师读一部分，学生集体读一部分的行为，老师会引导学生整齐划一地开展，“我们一起来读”这句话也体现出了要求学生整齐划一地朗读。综合上述整段话的分析过程，这个课堂活动是由学生集体参与、且整齐划一地开展的朗读活动，符合”学生齐读“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生齐读”。因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1004,7 +1080,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1023,7 +1099,11 @@
           <t>你会从哪儿？老师读了，你会从那小玻璃上面掠过的一条黑影下降的傲洲。</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你会从哪儿？”体现出老师发起了一个开展课堂活动的指令，但这里没有明确指出是全体学生还是个别学生来执行活动，也没有明确活动的具体形式，如发言、书写或朗读。接下来，老师读了“你会从那小玻璃上面掠过的一条黑影下降的傲洲”，这可能是老师在示范或者引导学生朗读，但没有直接指示学生要做什么。综合分析，这段话语没有清晰地指向预设的课堂活动类别，因此无法确定具体要进行的课堂活动。
@@ -1050,7 +1130,11 @@
           <t>我们还可以同桌之间互相的再读一读。这么美的句子，正是因为有了天窗，所以呀被关在地洞似的屋子里的孩子们才有了如此丰富奇妙的想象，</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>小组学习</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“我们还可以同桌之间互相的再读一读”体现出老师发起了一个开展课堂活动的指令，其中，“同桌之间互相的再读一读”体现出这个活动是学生与同桌之间进行的，是相互的朗读活动。这种活动通常要求学生两人一组进行，符合“小组学习”的特征。同时，因为“再读一读”表明这个朗读活动之前已经进行过，现在是再次进行，所以活动的进行状态可能是“进行中”或“开始”。综合分析，这个课堂活动是学生以同桌为单位进行的朗读活动。
@@ -1058,7 +1142,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1077,7 +1161,11 @@
           <t>所以作者忍不住说，</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，"所以作者忍不住说"，这句话更像是老师在讲解过程中引用或转述作者的观点，没有直接发出启动课堂活动的指令，也没有提及学生需要做什么活动。所以，在老师说完这段话后，无法识别出任何预设的课堂活动类别。
@@ -1104,7 +1192,11 @@
           <t>就是无和有作者运用神奇的想象，把看到的一粒星想出无数颗星星，把云想出了千姿百态的奇幻云彩，这些是不存在的，就是虚和实。嗯，还有想谈谈你的看法，看法还有吗？</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“还有想谈谈你的看法”体现出老师发起了一个开展课堂活动的指令，邀请学生分享自己的观点，这符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1112,7 +1204,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1131,7 +1223,11 @@
           <t>好，最后老师再给大家几分钟同桌合作，再来读一读。唉，是怎样从无中看出有从虚中看出实的感受一下作者的想象桌互读开始，</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>小组学习</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“好，最后老师再给大家几分钟同桌合作，再来读一读”体现出老师发起了一个开展课堂活动的指令。首先，“同桌合作”体现出这个课堂活动是学生以同桌为单位进行的，即小组形式的活动。进一步地，“再来读一读”体现出老师要求学生进行阅读活动，但“再来”一词表明这是一个重复性的活动，即之前已经进行过，现在是再次进行。接着，“唉，是怎样从无中看出有从虚中看出实的感受一下作者的想象”是对学生阅读时的指导，要求学生在阅读过程中思考并感受作者的想象。最后，“桌互读开始”中的“桌互读”可以理解为同桌之间互相朗读，符合“小组学习”和“学生齐读”的特征，但考虑到是同桌之间进行，更倾向于“小组学习”。
@@ -1140,7 +1236,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1159,7 +1255,11 @@
           <t>好了是吗？嗯，今天啊我们学习了天窗，感受到了作者的想象。其实生活中并不是缺少天窗，而是缺少发现，</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“好了是吗？”体现了老师可能在确认学生是否完成了某个任务或活动，但没有明确指出下一个具体的课堂活动。而“今天啊我们学习了天窗，感受到了作者的想象”是对过去课堂内容的回顾和总结，没有发起新的课堂活动。因此，从这段话中无法识别出预设的课堂活动类别。
@@ -1186,7 +1286,11 @@
           <t>请坐先整理桌面，把你的笔袋儿笔放到笔袋儿里面去，一手拿笔袋儿，一手拿书，嗯，挺的，也把笔袋儿拉到桌洞里面去，</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师的话语涉及到一系列的动作指令，如“整理桌面”，“把你的笔袋儿笔放到笔袋儿里面去”，“一手拿笔袋儿，一手拿书”，“挺的，也把笔袋儿拉到桌洞里面去”，这些都是对学生个人行为的指示，要求学生整理个人的学习工具和桌面。这些行为虽然可以视为课堂活动的一部分，但它们并不符合我们预设的8类课堂活动，比如个体发言、小组学习等。因此，这些行为属于课堂管理活动，而非我们定义的典型课堂活动。
